--- a/src/Отчеты/report_bills.xlsx
+++ b/src/Отчеты/report_bills.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="28240" windowHeight="15500"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -204,9 +204,6 @@
   <si>
     <t>Сведения о показаниях счетчиков:</t>
   </si>
-  <si>
-    <t>${lc.bk}</t>
-  </si>
 </sst>
 </file>
 
@@ -215,7 +212,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -272,21 +269,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="Arial Cyr"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <name val="Code 128"/>
       <charset val="204"/>
     </font>
     <font>
@@ -300,6 +286,37 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <name val="Code 128"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -718,7 +735,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -732,20 +749,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -754,62 +768,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -817,58 +784,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -882,17 +801,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -900,29 +810,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -952,33 +985,38 @@
     <cellStyle name="Гиперссылка" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="5"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Просмотренная гиперссылка" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="49" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1304,33 +1342,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="75" customWidth="1"/>
-    <col min="11" max="11" width="4.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="1" customWidth="1"/>
-    <col min="13" max="18" width="10.83203125" style="1"/>
-    <col min="19" max="19" width="4.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.85546875" style="1"/>
+    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:18" ht="65" customHeight="1">
+      <c r="J1" s="29"/>
+    </row>
+    <row r="2" spans="1:18" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1340,21 +1381,21 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="73"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="4"/>
       <c r="C3"/>
@@ -1364,7 +1405,7 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="73"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="8" t="s">
@@ -1377,12 +1418,12 @@
       <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="82"/>
-    </row>
-    <row r="4" spans="1:18" ht="34" thickBot="1">
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4"/>
@@ -1392,23 +1433,21 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="73"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="32" t="s">
         <v>8</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="7"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="10" t="s">
+      <c r="Q4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="11"/>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5"/>
@@ -1418,21 +1457,21 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="73"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="34" t="s">
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -1442,79 +1481,79 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="73"/>
+      <c r="J6" s="29"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="35" t="s">
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="40" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7"/>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7"/>
       <c r="E7" s="3"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="73"/>
+      <c r="J7" s="29"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="35" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="40" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1">
+    <row r="8" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="73"/>
+      <c r="J8" s="29"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="59" t="s">
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="4" customHeight="1">
+    <row r="9" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="73"/>
+      <c r="J9" s="29"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -1522,19 +1561,19 @@
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
-      <c r="R9" s="64"/>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="R9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="29"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
@@ -1544,31 +1583,31 @@
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
-      <c r="R10" s="64"/>
-    </row>
-    <row r="11" spans="1:18" ht="34" customHeight="1">
+      <c r="R10" s="22"/>
+    </row>
+    <row r="11" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="73"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="89"/>
-      <c r="O11" s="89"/>
-      <c r="P11" s="89"/>
-      <c r="Q11" s="89"/>
-      <c r="R11" s="89"/>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="5" t="s">
@@ -1576,13 +1615,13 @@
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="29"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5" t="s">
@@ -1593,616 +1632,624 @@
         <v>53</v>
       </c>
       <c r="Q12" s="5"/>
-      <c r="R12" s="64"/>
-    </row>
-    <row r="13" spans="1:18" s="72" customFormat="1" ht="4" customHeight="1">
-      <c r="A13" s="67"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="71"/>
-    </row>
-    <row r="14" spans="1:18" ht="15">
-      <c r="A14" s="13" t="s">
+      <c r="R12" s="22"/>
+    </row>
+    <row r="13" spans="1:18" s="28" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="83" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="13" t="s">
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="83" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="83"/>
-      <c r="O14" s="83"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="83"/>
-      <c r="R14" s="83"/>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16" t="s">
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="84"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="16" t="s">
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="17" t="s">
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="84" t="s">
+      <c r="Q15" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="84"/>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="18" t="s">
+      <c r="R15" s="44"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="18" t="s">
+      <c r="I16" s="49"/>
+      <c r="J16" s="46"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="19" t="s">
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="49" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="29" customHeight="1" thickBot="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="76" t="s">
+    <row r="17" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="76" t="s">
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="76"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="76"/>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14" t="s">
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="51"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="H18" s="25" t="s">
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="24"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14" t="s">
+      <c r="I18" s="55"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+      <c r="M18" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="R18" s="25" t="s">
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="54" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="H19" s="26" t="s">
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14" t="s">
+      <c r="I19" s="55"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+      <c r="M19" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="R19" s="26" t="s">
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14" t="s">
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="H20" s="26" t="s">
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14" t="s">
+      <c r="I20" s="55"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="R20" s="26" t="s">
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="56" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="H21" s="60" t="s">
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="65"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
+      <c r="I21" s="58"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="R21" s="60" t="s">
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="53"/>
+      <c r="R21" s="57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="5" customHeight="1" thickBot="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="73"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-    </row>
-    <row r="23" spans="1:19" ht="27" thickBot="1">
-      <c r="A23" s="32"/>
-      <c r="B23" s="85" t="s">
+    <row r="22" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+    </row>
+    <row r="23" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="59"/>
+      <c r="B23" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="61"/>
+      <c r="D23" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="39" t="s">
+      <c r="E23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="66"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="85" t="s">
+      <c r="I23" s="64"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="86"/>
-      <c r="N23" s="39" t="s">
+      <c r="M23" s="61"/>
+      <c r="N23" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="39" t="s">
+      <c r="O23" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="39" t="s">
+      <c r="P23" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="39" t="s">
+      <c r="Q23" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="40" t="s">
+      <c r="R23" s="63" t="s">
         <v>29</v>
       </c>
       <c r="S23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="31"/>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="41" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="66"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="69"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="42" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="43" t="s">
+      <c r="H25" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="41" t="s">
+      <c r="I25" s="76"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="87" t="s">
+      <c r="L25" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="88"/>
-      <c r="N25" s="42" t="s">
+      <c r="M25" s="72"/>
+      <c r="N25" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="R25" s="43" t="s">
+      <c r="R25" s="75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1">
-      <c r="A26" s="33" t="s">
+    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="31"/>
-    </row>
-    <row r="27" spans="1:19" ht="15" thickBot="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="77" t="s">
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="69"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="38" t="s">
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36">
+      <c r="F27" s="83"/>
+      <c r="G27" s="83">
         <v>0</v>
       </c>
-      <c r="H27" s="37" t="s">
+      <c r="H27" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="46"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="77" t="s">
+      <c r="I27" s="76"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="78"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="38" t="s">
+      <c r="M27" s="80"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36">
+      <c r="P27" s="83"/>
+      <c r="Q27" s="83">
         <v>0</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R27" s="84" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="5" customHeight="1" thickBot="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-    </row>
-    <row r="29" spans="1:19">
-      <c r="A29" s="28"/>
-      <c r="B29" s="53" t="s">
+    <row r="28" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="85"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="68"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="66"/>
+      <c r="B29" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="46"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="53" t="s">
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="86" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="54" t="s">
+      <c r="M29" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="54" t="s">
+      <c r="N29" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="55" t="s">
+      <c r="O29" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="46"/>
-      <c r="Q29" s="46"/>
-      <c r="R29" s="46"/>
-    </row>
-    <row r="30" spans="1:19">
-      <c r="A30" s="28" t="s">
+      <c r="P29" s="76"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="76"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
-      <c r="R30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="50" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
+      <c r="O30" s="94"/>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="76"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="66"/>
+      <c r="B31" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="51" t="s">
+      <c r="C31" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="51" t="s">
+      <c r="D31" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-      <c r="I31" s="46"/>
-      <c r="J31" s="73"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="50" t="s">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="M31" s="51" t="s">
+      <c r="M31" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="51" t="s">
+      <c r="N31" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="O31" s="52" t="s">
+      <c r="O31" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-    </row>
-    <row r="32" spans="1:19">
-      <c r="A32" s="28" t="s">
+      <c r="P31" s="76"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="76"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-      <c r="I32" s="46"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="28"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="46"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="46"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="46"/>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="28"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="45"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="46"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
@@ -2225,8 +2272,9 @@
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="M11:R11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>

--- a/src/Отчеты/report_bills.xlsx
+++ b/src/Отчеты/report_bills.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -204,6 +204,10 @@
   <si>
     <t>Сведения о показаниях счетчиков:</t>
   </si>
+  <si>
+    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до 25  числа текущего месяца.                                                                            
+Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.)                                                     </t>
+  </si>
 </sst>
 </file>
 
@@ -212,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -317,6 +321,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -735,7 +746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -804,21 +815,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -832,9 +828,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -844,9 +837,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -859,12 +849,6 @@
     <xf numFmtId="2" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -887,12 +871,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -904,15 +882,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,9 +893,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -948,14 +914,78 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1345,22 +1375,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="4" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="1" customWidth="1"/>
-    <col min="13" max="18" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="22.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" customWidth="1"/>
+    <col min="14" max="18" width="10.85546875" style="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
@@ -1386,14 +1418,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1418,10 +1450,10 @@
       <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="35"/>
+      <c r="R3" s="94"/>
     </row>
     <row r="4" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1460,14 +1492,14 @@
       <c r="J5" s="29"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="38" t="s">
+      <c r="M5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="39" t="s">
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1484,14 +1516,14 @@
       <c r="J6" s="29"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="40" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="35" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1508,14 +1540,14 @@
       <c r="J7" s="29"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="38" t="s">
+      <c r="M7" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="40" t="s">
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1532,14 +1564,14 @@
       <c r="J8" s="29"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="38" t="s">
+      <c r="M8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="41" t="s">
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="36" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1596,16 +1628,16 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="37" t="s">
+      <c r="K11" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -1659,558 +1691,566 @@
         <v>16</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
       <c r="I14" s="21"/>
       <c r="J14" s="29"/>
       <c r="K14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="36" t="s">
+      <c r="M14" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="95"/>
+      <c r="Q14" s="95"/>
+      <c r="R14" s="95"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="43" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="44" t="s">
+      <c r="G15" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="47"/>
-      <c r="M15" s="42" t="s">
+      <c r="H15" s="96"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="43" t="s">
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="44" t="s">
+      <c r="Q15" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="44"/>
+      <c r="R15" s="96"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="49" t="s">
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="49"/>
-      <c r="J16" s="46"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="48" t="s">
+      <c r="I16" s="43"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49" t="s">
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="46"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="51" t="s">
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
+      <c r="R17" s="82"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54" t="s">
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="53"/>
-      <c r="R18" s="54" t="s">
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="47" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="56" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50" t="s">
+      <c r="I19" s="48"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="56" t="s">
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="49" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="56" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50" t="s">
+      <c r="I20" s="48"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="56" t="s">
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="49" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="57" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50" t="s">
+      <c r="I21" s="51"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="57" t="s">
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-    </row>
-    <row r="23" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59"/>
-      <c r="B23" s="60" t="s">
+    <row r="22" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="51"/>
+    </row>
+    <row r="23" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+    </row>
+    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="52"/>
+      <c r="B24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62" t="s">
+      <c r="C24" s="87"/>
+      <c r="D24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="62" t="s">
+      <c r="E24" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="62" t="s">
+      <c r="F24" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="62" t="s">
+      <c r="G24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="63" t="s">
+      <c r="H24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="64"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="60" t="s">
+      <c r="I24" s="55"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="M23" s="61"/>
-      <c r="N23" s="62" t="s">
+      <c r="M24" s="87"/>
+      <c r="N24" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O23" s="62" t="s">
+      <c r="O24" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P23" s="62" t="s">
+      <c r="P24" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="62" t="s">
+      <c r="Q24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="R23" s="63" t="s">
+      <c r="R24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="65" t="s">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="67"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="69"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="70" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="60"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B26" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="73" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E26" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F26" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G26" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="75" t="s">
+      <c r="H26" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="70" t="s">
+      <c r="I26" s="65"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L25" s="71" t="s">
+      <c r="L26" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="73" t="s">
+      <c r="M26" s="91"/>
+      <c r="N26" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O25" s="73" t="s">
+      <c r="O26" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="P25" s="74" t="s">
+      <c r="P26" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q25" s="74" t="s">
+      <c r="Q26" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="R25" s="75" t="s">
+      <c r="R26" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="77" t="s">
+    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="46"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="69"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="57"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="57"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="60"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="67"/>
+      <c r="B28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="82" t="s">
+      <c r="C28" s="84"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83">
+      <c r="F28" s="69"/>
+      <c r="G28" s="69">
         <v>0</v>
       </c>
-      <c r="H27" s="84" t="s">
+      <c r="H28" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="I27" s="76"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="79" t="s">
+      <c r="I28" s="65"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="M27" s="80"/>
-      <c r="N27" s="81"/>
-      <c r="O27" s="82" t="s">
+      <c r="M28" s="84"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83">
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69">
         <v>0</v>
       </c>
-      <c r="R27" s="84" t="s">
+      <c r="R28" s="70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="85"/>
-      <c r="M28" s="85"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="86" t="s">
+    <row r="29" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="71"/>
+      <c r="M29" s="71"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="87" t="s">
+      <c r="C30" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="87" t="s">
+      <c r="D30" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E30" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="76"/>
-      <c r="J29" s="46"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="86" t="s">
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="M29" s="87" t="s">
+      <c r="M30" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="N29" s="87" t="s">
+      <c r="N30" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="O29" s="88" t="s">
+      <c r="O30" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="76"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="66" t="s">
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="46"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="66"/>
-      <c r="B31" s="95" t="s">
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="78"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+    </row>
+    <row r="32" spans="1:19" s="104" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="99"/>
+      <c r="B32" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="96" t="s">
+      <c r="C32" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D32" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="E32" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="46"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="O31" s="97" t="s">
-        <v>49</v>
-      </c>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="76"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="19"/>
+      <c r="J32" s="103"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="M32" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="N32" s="101" t="s">
+        <v>48</v>
+      </c>
+      <c r="O32" s="102" t="s">
+        <v>49</v>
+      </c>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="17" t="s">
+        <v>3</v>
+      </c>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -2241,40 +2281,63 @@
       <c r="I34" s="20"/>
       <c r="J34" s="29"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="L34" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="M34" s="81"/>
+      <c r="N34" s="81"/>
+      <c r="O34" s="81"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="B27:D27"/>
+  <mergeCells count="16">
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="M14:R14"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="L34:R35"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="L26:M26"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>

--- a/src/Отчеты/report_bills.xlsx
+++ b/src/Отчеты/report_bills.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -205,7 +205,7 @@
     <t>Сведения о показаниях счетчиков:</t>
   </si>
   <si>
-    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до 25  числа текущего месяца.                                                                            
+    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до 31  числа текущего месяца.                                                                            
 Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.)                                                     </t>
   </si>
 </sst>
@@ -914,60 +914,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,6 +932,60 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1377,8 +1377,8 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,14 +1418,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="92" t="s">
+      <c r="M2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="93"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1450,10 +1450,10 @@
       <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="94" t="s">
+      <c r="Q3" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="94"/>
+      <c r="R3" s="101"/>
     </row>
     <row r="4" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
@@ -1628,39 +1628,34 @@
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11" s="29"/>
-      <c r="K11" s="97" t="s">
+      <c r="K11" s="104" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="104"/>
+      <c r="P11" s="104"/>
+      <c r="Q11" s="104"/>
+      <c r="R11" s="104"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="F12" s="13"/>
       <c r="G12" s="11"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="29"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N12" s="5"/>
-      <c r="P12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>53</v>
       </c>
       <c r="Q12" s="5"/>
@@ -1691,28 +1686,28 @@
         <v>16</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="102"/>
       <c r="I14" s="21"/>
       <c r="J14" s="29"/>
       <c r="K14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="L14" s="12"/>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="95"/>
-      <c r="R14" s="95"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="102"/>
+      <c r="Q14" s="102"/>
+      <c r="R14" s="102"/>
     </row>
     <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
@@ -1725,10 +1720,10 @@
       <c r="F15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="96" t="s">
+      <c r="G15" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="H15" s="96"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="39"/>
       <c r="J15" s="40"/>
       <c r="K15" s="41"/>
@@ -1741,10 +1736,10 @@
       <c r="P15" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="96" t="s">
+      <c r="Q15" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="96"/>
+      <c r="R15" s="103"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
@@ -1777,26 +1772,26 @@
     <row r="17" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="45"/>
       <c r="J17" s="40"/>
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
-      <c r="M17" s="82" t="s">
+      <c r="M17" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -1913,26 +1908,20 @@
     <row r="22" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="13" t="s">
-        <v>53</v>
-      </c>
+      <c r="F22" s="13"/>
       <c r="G22" s="46"/>
       <c r="H22" s="51"/>
       <c r="I22" s="51"/>
       <c r="J22" s="40"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="5" t="s">
+      <c r="L22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>53</v>
       </c>
       <c r="Q22" s="46"/>
@@ -1960,10 +1949,10 @@
     </row>
     <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="52"/>
-      <c r="B24" s="86" t="s">
+      <c r="B24" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="87"/>
+      <c r="C24" s="94"/>
       <c r="D24" s="53" t="s">
         <v>25</v>
       </c>
@@ -1982,10 +1971,10 @@
       <c r="I24" s="55"/>
       <c r="J24" s="40"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="86" t="s">
+      <c r="L24" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="87"/>
+      <c r="M24" s="94"/>
       <c r="N24" s="53" t="s">
         <v>25</v>
       </c>
@@ -2031,10 +2020,10 @@
       <c r="A26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="89"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="62" t="s">
         <v>34</v>
       </c>
@@ -2055,10 +2044,10 @@
       <c r="K26" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="L26" s="90" t="s">
+      <c r="L26" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="91"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="62" t="s">
         <v>34</v>
       </c>
@@ -2099,11 +2088,11 @@
     </row>
     <row r="28" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="67"/>
-      <c r="B28" s="83" t="s">
+      <c r="B28" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
       <c r="E28" s="68" t="s">
         <v>11</v>
       </c>
@@ -2117,11 +2106,11 @@
       <c r="I28" s="65"/>
       <c r="J28" s="40"/>
       <c r="K28" s="67"/>
-      <c r="L28" s="83" t="s">
+      <c r="L28" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="M28" s="84"/>
-      <c r="N28" s="85"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="92"/>
       <c r="O28" s="68" t="s">
         <v>11</v>
       </c>
@@ -2158,10 +2147,10 @@
       <c r="B30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="98" t="s">
+      <c r="D30" s="80" t="s">
         <v>43</v>
       </c>
       <c r="E30" s="73" t="s">
@@ -2176,10 +2165,10 @@
       <c r="L30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="98" t="s">
+      <c r="M30" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="98" t="s">
+      <c r="N30" s="80" t="s">
         <v>43</v>
       </c>
       <c r="O30" s="73" t="s">
@@ -2211,36 +2200,36 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:19" s="104" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
-      <c r="B32" s="100" t="s">
+    <row r="32" spans="1:19" s="86" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="81"/>
+      <c r="B32" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="101" t="s">
+      <c r="C32" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="84" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="103"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="100" t="s">
+      <c r="J32" s="85"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="101" t="s">
+      <c r="M32" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="101" t="s">
+      <c r="N32" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="102" t="s">
+      <c r="O32" s="84" t="s">
         <v>49</v>
       </c>
       <c r="P32" s="20"/>
@@ -2281,15 +2270,15 @@
       <c r="I34" s="20"/>
       <c r="J34" s="29"/>
       <c r="K34" s="17"/>
-      <c r="L34" s="80" t="s">
+      <c r="L34" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
-      <c r="P34" s="81"/>
-      <c r="Q34" s="81"/>
-      <c r="R34" s="81"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="88"/>
+      <c r="O34" s="88"/>
+      <c r="P34" s="88"/>
+      <c r="Q34" s="88"/>
+      <c r="R34" s="88"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -2303,13 +2292,13 @@
       <c r="I35" s="20"/>
       <c r="J35" s="29"/>
       <c r="K35" s="17"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="81"/>
-      <c r="O35" s="81"/>
-      <c r="P35" s="81"/>
-      <c r="Q35" s="81"/>
-      <c r="R35" s="81"/>
+      <c r="L35" s="88"/>
+      <c r="M35" s="88"/>
+      <c r="N35" s="88"/>
+      <c r="O35" s="88"/>
+      <c r="P35" s="88"/>
+      <c r="Q35" s="88"/>
+      <c r="R35" s="88"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">

--- a/src/Отчеты/report_bills.xlsx
+++ b/src/Отчеты/report_bills.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -207,6 +207,43 @@
   <si>
     <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до 31  числа текущего месяца.                                                                            
 Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-910-989-59-84 (Пырх Л.И.)                                                     </t>
+  </si>
+  <si>
+    <r>
+      <t>${lc.saldo.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>full_</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>calc}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>${lc.saldo.recalc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>}</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -694,13 +731,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -882,11 +923,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -933,6 +970,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -988,7 +1029,7 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="54">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="6" builtinId="8" hidden="1"/>
@@ -1013,6 +1054,8 @@
     <cellStyle name="Гиперссылка" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Гиперссылка" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Гиперссылка" xfId="52" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="5"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="2" builtinId="9" hidden="1"/>
@@ -1039,6 +1082,8 @@
     <cellStyle name="Открывавшаяся гиперссылка" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Открывавшаяся гиперссылка" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="53" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1372,26 +1417,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:R17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
     <col min="4" max="8" width="10.85546875" style="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
     <col min="12" max="12" width="22.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
     <col min="14" max="18" width="10.85546875" style="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.85546875" style="1"/>
@@ -2093,15 +2138,15 @@
       </c>
       <c r="C28" s="91"/>
       <c r="D28" s="92"/>
-      <c r="E28" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69">
-        <v>0</v>
-      </c>
-      <c r="H28" s="70" t="s">
+      <c r="E28" s="85" t="s">
         <v>40</v>
+      </c>
+      <c r="F28" s="68"/>
+      <c r="G28" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="86" t="s">
+        <v>57</v>
       </c>
       <c r="I28" s="65"/>
       <c r="J28" s="40"/>
@@ -2111,22 +2156,22 @@
       </c>
       <c r="M28" s="91"/>
       <c r="N28" s="92"/>
-      <c r="O28" s="68" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="69"/>
-      <c r="Q28" s="69">
-        <v>0</v>
-      </c>
-      <c r="R28" s="70" t="s">
+      <c r="O28" s="85" t="s">
         <v>40</v>
+      </c>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="86" t="s">
+        <v>58</v>
+      </c>
+      <c r="R28" s="86" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="57"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="59"/>
       <c r="F29" s="65"/>
       <c r="G29" s="65"/>
@@ -2134,9 +2179,9 @@
       <c r="I29" s="65"/>
       <c r="J29" s="40"/>
       <c r="K29" s="57"/>
-      <c r="L29" s="71"/>
-      <c r="M29" s="71"/>
-      <c r="N29" s="71"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
       <c r="O29" s="59"/>
       <c r="P29" s="65"/>
       <c r="Q29" s="65"/>
@@ -2144,16 +2189,16 @@
     </row>
     <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="57"/>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="80" t="s">
+      <c r="C30" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="80" t="s">
+      <c r="D30" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="71" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="65"/>
@@ -2162,16 +2207,16 @@
       <c r="I30" s="65"/>
       <c r="J30" s="40"/>
       <c r="K30" s="57"/>
-      <c r="L30" s="72" t="s">
+      <c r="L30" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="M30" s="80" t="s">
+      <c r="M30" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="N30" s="80" t="s">
+      <c r="N30" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="O30" s="73" t="s">
+      <c r="O30" s="71" t="s">
         <v>44</v>
       </c>
       <c r="P30" s="65"/>
@@ -2182,54 +2227,54 @@
       <c r="A31" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="76"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="65"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
       <c r="I31" s="65"/>
       <c r="J31" s="40"/>
       <c r="K31" s="57"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="78"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="79"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="76"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="77"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:19" s="86" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="81"/>
-      <c r="B32" s="82" t="s">
+    <row r="32" spans="1:19" s="84" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79"/>
+      <c r="B32" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="83" t="s">
+      <c r="D32" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="82" t="s">
         <v>49</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="82" t="s">
+      <c r="J32" s="83"/>
+      <c r="K32" s="79"/>
+      <c r="L32" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="M32" s="83" t="s">
+      <c r="M32" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="N32" s="83" t="s">
+      <c r="N32" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="O32" s="84" t="s">
+      <c r="O32" s="82" t="s">
         <v>49</v>
       </c>
       <c r="P32" s="20"/>
@@ -2326,7 +2371,7 @@
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>
